--- a/Data/Boss.xlsx
+++ b/Data/Boss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E003F-9C04-4920-9DC2-6C755AD141A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85EFAE8-6912-48BE-B7DB-824683EAE9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
+    <workbookView xWindow="5970" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -591,16 +591,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -617,16 +617,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>50</v>
@@ -652,7 +652,7 @@
         <v>150</v>
       </c>
       <c r="F5" s="2">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -669,10 +669,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>1000</v>
